--- a/опт и Краснодар/2023/10,23/30,10,23 Кр_Сч_РнД/дв 30,10,23 кррсч от филиала.xlsx
+++ b/опт и Краснодар/2023/10,23/30,10,23 Кр_Сч_РнД/дв 30,10,23 кррсч от филиала.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\10,23\30,10,23 Кр_Сч_РнД\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16351D7-AC33-4217-AD86-0234201D6F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08BC62B-384D-4EBB-BC9A-F8454A462DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14976,8 +14976,8 @@
   <dimension ref="A1:W141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y115" sqref="Y115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
